--- a/Notes_Maps.xlsx
+++ b/Notes_Maps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NearEastTimeline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C4AB0F-12EB-485B-94E1-ECB9FF0454CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5A1F91-1996-49E7-9C3F-3577D8C6DF1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="2745" windowWidth="21600" windowHeight="11835" xr2:uid="{D77108BB-D4F1-4511-9A6E-76948AB84975}"/>
+    <workbookView xWindow="3510" yWindow="3270" windowWidth="21600" windowHeight="11835" xr2:uid="{D77108BB-D4F1-4511-9A6E-76948AB84975}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -525,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E484C72-1CA0-4B59-AC7B-096BE639420F}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
